--- a/classwork_1/module_4_practice_1.xlsx
+++ b/classwork_1/module_4_practice_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\1\module_testing\classwork_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFC9369-EA6C-4507-B97B-A8E4ADECB64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D78959-6918-4F4F-88EA-B9518941B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
+    <workbookView xWindow="11820" yWindow="276" windowWidth="11304" windowHeight="11772" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Калькулятор" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>Идентификатор теста</t>
   </si>
@@ -104,21 +104,6 @@
     <t>ТС-015</t>
   </si>
   <si>
-    <t>ТС-016</t>
-  </si>
-  <si>
-    <t>ТС-017</t>
-  </si>
-  <si>
-    <t>ТС-018</t>
-  </si>
-  <si>
-    <t>ТС-019</t>
-  </si>
-  <si>
-    <t>ТС-020</t>
-  </si>
-  <si>
     <t>Фактический результат</t>
   </si>
   <si>
@@ -131,67 +116,58 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>Проверка работы с положительными целыми числами</t>
-  </si>
-  <si>
-    <t>AssertionError</t>
-  </si>
-  <si>
-    <t>Корректность работы операции сложения</t>
-  </si>
-  <si>
-    <t>Корректность работы операции вычитания</t>
-  </si>
-  <si>
-    <t>Корректность работы операции деления</t>
-  </si>
-  <si>
     <t>Корректность работы операции умножения</t>
   </si>
   <si>
-    <t>Проверка работы операции с отрицательными числами</t>
-  </si>
-  <si>
-    <t>Обработка строки</t>
-  </si>
-  <si>
-    <t>Проверка работы с большим и малым числом</t>
-  </si>
-  <si>
-    <t>Проверка работы с нулевым значением</t>
-  </si>
-  <si>
-    <t>5, 5</t>
-  </si>
-  <si>
-    <t>Вызвать функцию и передать положительные числа</t>
-  </si>
-  <si>
-    <t>-5, -5</t>
-  </si>
-  <si>
-    <t>Вызвать функцию и передать отрицательные числа</t>
-  </si>
-  <si>
-    <t>"5", "5"</t>
-  </si>
-  <si>
-    <t>Вызвать функцию и передать строковое значение</t>
-  </si>
-  <si>
-    <t>5, 50000</t>
-  </si>
-  <si>
-    <t>Вызвать функцию и передать малое и большое число</t>
-  </si>
-  <si>
-    <t>5, 0</t>
-  </si>
-  <si>
-    <t>Вызвать функцию и передать нулевое значение</t>
-  </si>
-  <si>
-    <t>ZeroDivisionError</t>
+    <t>Корректность работы операции суммирования</t>
+  </si>
+  <si>
+    <t>Корректность работы операции вычисления среднего значения</t>
+  </si>
+  <si>
+    <t>Проверка работы с отрицательными числами</t>
+  </si>
+  <si>
+    <t>Проверка работы с положительными числами</t>
+  </si>
+  <si>
+    <t>Проверка работы с положительными и отрицательными числами</t>
+  </si>
+  <si>
+    <t>Проверка работы с нулевыми числами</t>
+  </si>
+  <si>
+    <t>Проверка работы со значениями имеющими различные типы данных</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[-1, -2, -3]</t>
+  </si>
+  <si>
+    <t>[-1, 2, -3]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0]</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать список с положительными числами</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать список с отрицательными числами</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать список с положительными и отрицательными числами</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать список с нулевыми числами</t>
+  </si>
+  <si>
+    <t>["1", 2, 3.0]</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать список со значениями с различными типами данных</t>
   </si>
 </sst>
 </file>
@@ -199,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -330,7 +306,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,16 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EF1CFD-9705-4AB0-BC95-161102859BA4}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A22" activeCellId="1" sqref="A17 A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.77734375" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" style="5" customWidth="1"/>
     <col min="5" max="5" width="48.5546875" customWidth="1"/>
@@ -675,23 +651,21 @@
     </row>
     <row r="2" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
@@ -716,10 +690,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -727,25 +701,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F8" s="12">
-        <v>10</v>
-      </c>
-      <c r="G8" s="12">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G8" s="12"/>
       <c r="H8" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -753,51 +725,47 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F9" s="12">
-        <v>-10</v>
-      </c>
-      <c r="G9" s="12">
-        <v>-10</v>
-      </c>
+        <v>-6</v>
+      </c>
+      <c r="G9" s="12"/>
       <c r="H9" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F10" s="12">
+        <v>-2</v>
+      </c>
+      <c r="G10" s="12"/>
       <c r="H10" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -805,51 +773,47 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12">
-        <v>50005</v>
-      </c>
-      <c r="G11" s="12">
-        <v>50005</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="12">
-        <v>5</v>
-      </c>
-      <c r="G12" s="12">
-        <v>5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="12"/>
       <c r="H12" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -857,25 +821,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G13" s="12"/>
       <c r="H13" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -883,51 +845,47 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
+        <v>-6</v>
+      </c>
+      <c r="G14" s="12"/>
       <c r="H14" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F15" s="12">
+        <v>6</v>
+      </c>
+      <c r="G15" s="12"/>
       <c r="H15" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -935,51 +893,47 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F16" s="12">
-        <v>-49995</v>
-      </c>
-      <c r="G16" s="12">
-        <v>-49995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12"/>
       <c r="H16" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="12">
-        <v>-5</v>
-      </c>
-      <c r="G17" s="12">
-        <v>-5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="12"/>
       <c r="H17" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -987,25 +941,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F18" s="12">
-        <v>25</v>
-      </c>
-      <c r="G18" s="12">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G18" s="12"/>
       <c r="H18" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -1013,51 +965,47 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="12">
+        <v>-2</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="12">
-        <v>25</v>
-      </c>
-      <c r="G19" s="12">
-        <v>25</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>29</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="G20" s="12"/>
       <c r="H20" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -1065,181 +1013,47 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F21" s="12">
-        <v>250000</v>
-      </c>
-      <c r="G21" s="12">
-        <v>250000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G21" s="12"/>
       <c r="H21" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="12"/>
       <c r="H22" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="12">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1</v>
-      </c>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="14">
-        <v>1E-4</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1E-4</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/classwork_1/module_4_practice_1.xlsx
+++ b/classwork_1/module_4_practice_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\1\module_testing\classwork_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D78959-6918-4F4F-88EA-B9518941B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF34F7D-314F-457E-A314-4C6B4584AFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="276" windowWidth="11304" windowHeight="11772" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Калькулятор" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
   <si>
     <t>Идентификатор теста</t>
   </si>
@@ -168,14 +168,99 @@
   </si>
   <si>
     <t>Вызвать функцию и передать список со значениями с различными типами данных</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать список с типовым примером</t>
+  </si>
+  <si>
+    <t>[10, 100, 1000]</t>
+  </si>
+  <si>
+    <t>[50, 50, 50]</t>
+  </si>
+  <si>
+    <t>Проверка работы с типовым примером</t>
+  </si>
+  <si>
+    <t>Проверка работы с типовым примером (отрицательные, положительные, нулевые)</t>
+  </si>
+  <si>
+    <t>ТС-016</t>
+  </si>
+  <si>
+    <t>ТС-017</t>
+  </si>
+  <si>
+    <t>ТС-018</t>
+  </si>
+  <si>
+    <t>ТС-019</t>
+  </si>
+  <si>
+    <t>ТС-020</t>
+  </si>
+  <si>
+    <t>ТС-021</t>
+  </si>
+  <si>
+    <t>ТС-022</t>
+  </si>
+  <si>
+    <t>ТС-023</t>
+  </si>
+  <si>
+    <t>ТС-024</t>
+  </si>
+  <si>
+    <t>ТС-025</t>
+  </si>
+  <si>
+    <t>ТС-026</t>
+  </si>
+  <si>
+    <t>["1", "2", 3.0]</t>
+  </si>
+  <si>
+    <t>["1", 2, "3.0"]</t>
+  </si>
+  <si>
+    <t>["1", None, 3]</t>
+  </si>
+  <si>
+    <t>[1, True, None]</t>
+  </si>
+  <si>
+    <t>ТС-027</t>
+  </si>
+  <si>
+    <t>ТС-028</t>
+  </si>
+  <si>
+    <t>ТС-029</t>
+  </si>
+  <si>
+    <t>ТС-030</t>
+  </si>
+  <si>
+    <t>[10, 100, 1000, 1]</t>
+  </si>
+  <si>
+    <t>[-1, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, -2, 0, 0]</t>
+  </si>
+  <si>
+    <t>0.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0000000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -267,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -306,7 +391,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EF1CFD-9705-4AB0-BC95-161102859BA4}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A22" activeCellId="1" sqref="A17 A22"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -728,16 +816,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F9" s="12">
-        <v>-6</v>
+        <v>1111</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11" t="s">
@@ -752,16 +840,16 @@
         <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F10" s="12">
-        <v>-2</v>
+        <v>150</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11" t="s">
@@ -776,16 +864,16 @@
         <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="12">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11" t="s">
@@ -793,23 +881,23 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="F12" s="12">
+        <v>-2</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="11" t="s">
@@ -821,19 +909,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F13" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="11" t="s">
@@ -845,19 +933,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F14" s="12">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="11" t="s">
@@ -869,19 +957,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F15" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="11" t="s">
@@ -889,23 +977,23 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="11" t="s">
@@ -917,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>43</v>
@@ -937,23 +1025,23 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="12">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="11" t="s">
@@ -961,23 +1049,23 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="12">
-        <v>-2</v>
+        <v>43</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="11" t="s">
@@ -985,23 +1073,23 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="14">
-        <v>1.3</v>
+        <v>43</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="11" t="s">
@@ -1013,19 +1101,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F21" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="11" t="s">
@@ -1033,26 +1121,386 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1000000</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="12">
+        <v>125000</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="12">
+        <v>-6</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="12">
+        <v>-2</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="12">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="12">
+        <v>370</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="12">
+        <v>50</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="12">
+        <v>-2</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="11" t="s">
         <v>25</v>
       </c>
     </row>

--- a/classwork_1/module_4_practice_1.xlsx
+++ b/classwork_1/module_4_practice_1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\1\module_testing\classwork_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF34F7D-314F-457E-A314-4C6B4584AFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E2E48-B816-435A-934D-C0AF29F8ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
+    <workbookView xWindow="11460" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Калькулятор" sheetId="2" r:id="rId1"/>
+    <sheet name="Массив" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="107">
   <si>
     <t>Идентификатор теста</t>
   </si>
@@ -146,39 +147,9 @@
     <t>[-1, -2, -3]</t>
   </si>
   <si>
-    <t>[-1, 2, -3]</t>
-  </si>
-  <si>
     <t>[0, 0, 0]</t>
   </si>
   <si>
-    <t>Вызвать функцию и передать список с положительными числами</t>
-  </si>
-  <si>
-    <t>Вызвать функцию и передать список с отрицательными числами</t>
-  </si>
-  <si>
-    <t>Вызвать функцию и передать список с положительными и отрицательными числами</t>
-  </si>
-  <si>
-    <t>Вызвать функцию и передать список с нулевыми числами</t>
-  </si>
-  <si>
-    <t>["1", 2, 3.0]</t>
-  </si>
-  <si>
-    <t>Вызвать функцию и передать список со значениями с различными типами данных</t>
-  </si>
-  <si>
-    <t>Вызвать функцию и передать список с типовым примером</t>
-  </si>
-  <si>
-    <t>[10, 100, 1000]</t>
-  </si>
-  <si>
-    <t>[50, 50, 50]</t>
-  </si>
-  <si>
     <t>Проверка работы с типовым примером</t>
   </si>
   <si>
@@ -218,18 +189,6 @@
     <t>ТС-026</t>
   </si>
   <si>
-    <t>["1", "2", 3.0]</t>
-  </si>
-  <si>
-    <t>["1", 2, "3.0"]</t>
-  </si>
-  <si>
-    <t>["1", None, 3]</t>
-  </si>
-  <si>
-    <t>[1, True, None]</t>
-  </si>
-  <si>
     <t>ТС-027</t>
   </si>
   <si>
@@ -242,26 +201,169 @@
     <t>ТС-030</t>
   </si>
   <si>
-    <t>[10, 100, 1000, 1]</t>
-  </si>
-  <si>
-    <t>[-1, 2, 0]</t>
-  </si>
-  <si>
-    <t>[3, -2, 0, 0]</t>
-  </si>
-  <si>
-    <t>0.3</t>
+    <t>Вызвать функцию и передать положительные числа</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать типовой пример</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать отрицательные числа</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать положительные и отрицательные числа</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать нулевые числа</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать значения с различными типами данных</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>10, 100</t>
+  </si>
+  <si>
+    <t>50, 50</t>
+  </si>
+  <si>
+    <t>-1, -2</t>
+  </si>
+  <si>
+    <t>-1, 2</t>
+  </si>
+  <si>
+    <t>0, 0</t>
+  </si>
+  <si>
+    <t>-1, 0</t>
+  </si>
+  <si>
+    <t>1, 0</t>
+  </si>
+  <si>
+    <t>"1", 2</t>
+  </si>
+  <si>
+    <t>None, 2</t>
+  </si>
+  <si>
+    <t>True, 2</t>
+  </si>
+  <si>
+    <t>"str", "str"</t>
+  </si>
+  <si>
+    <t>True, False</t>
+  </si>
+  <si>
+    <t>"1", 1</t>
+  </si>
+  <si>
+    <t>-1, 1</t>
+  </si>
+  <si>
+    <t>AssertionError</t>
+  </si>
+  <si>
+    <t>Корректность работы операции вычитания</t>
+  </si>
+  <si>
+    <t>Корректность работы операции сложения</t>
+  </si>
+  <si>
+    <t>Корректность работы операции деления</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>100, 10</t>
+  </si>
+  <si>
+    <t>ZeroDivideError</t>
+  </si>
+  <si>
+    <t>ТС-031</t>
+  </si>
+  <si>
+    <t>ТС-032</t>
+  </si>
+  <si>
+    <t>ТС-033</t>
+  </si>
+  <si>
+    <t>ТС-034</t>
+  </si>
+  <si>
+    <t>ТС-035</t>
+  </si>
+  <si>
+    <t>ТС-036</t>
+  </si>
+  <si>
+    <t>ТС-037</t>
+  </si>
+  <si>
+    <t>ТС-038</t>
+  </si>
+  <si>
+    <t>ТС-039</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>Корректность работы операции среднего значения</t>
+  </si>
+  <si>
+    <t>Обработка пустого массива</t>
+  </si>
+  <si>
+    <t>Обработка массива из одного элемента</t>
+  </si>
+  <si>
+    <t>Обработка массива имеющего значения с различными типами данных</t>
+  </si>
+  <si>
+    <t>Обработка массива одновременно с большими и малыми числами</t>
+  </si>
+  <si>
+    <t>[1, -2, 3]</t>
+  </si>
+  <si>
+    <t>[0, 1, -2]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[1, 100, 100000]</t>
+  </si>
+  <si>
+    <t>[10, 2, 5, -2, 1, -15]</t>
+  </si>
+  <si>
+    <t>["1", 2, True]</t>
+  </si>
+  <si>
+    <t>[None, 2, True]</t>
+  </si>
+  <si>
+    <t>-0,3</t>
+  </si>
+  <si>
+    <t>ZeroDivisionError</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="179" formatCode="#,##0.0000000000000"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -390,12 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EF1CFD-9705-4AB0-BC95-161102859BA4}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A2" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -739,768 +835,1067 @@
     </row>
     <row r="2" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="12">
-        <v>6</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F9" s="12">
-        <v>1111</v>
-      </c>
-      <c r="G9" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3</v>
+      </c>
       <c r="H9" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F10" s="12">
-        <v>150</v>
-      </c>
-      <c r="G10" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="G10" s="12">
+        <v>110</v>
+      </c>
       <c r="H10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F11" s="12">
-        <v>-6</v>
-      </c>
-      <c r="G11" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="12">
+        <v>100</v>
+      </c>
       <c r="H11" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F12" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G12" s="12"/>
+        <v>-3</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-3</v>
+      </c>
       <c r="H12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
       <c r="H13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
       <c r="H14" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="B16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="12">
         <v>1</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
       <c r="H16" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="H17" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="H18" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="H19" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="H20" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
+      <c r="A21" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="12">
-        <v>6</v>
-      </c>
-      <c r="G21" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="H21" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F22" s="12">
-        <v>1000000</v>
-      </c>
-      <c r="G22" s="12"/>
+        <v>-1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>-1</v>
+      </c>
       <c r="H22" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F23" s="12">
-        <v>125000</v>
-      </c>
-      <c r="G23" s="12"/>
+        <v>-90</v>
+      </c>
+      <c r="G23" s="12">
+        <v>-90</v>
+      </c>
       <c r="H23" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F24" s="12">
-        <v>-6</v>
-      </c>
-      <c r="G24" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
       <c r="H24" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F25" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G25" s="12"/>
+        <v>-3</v>
+      </c>
+      <c r="G25" s="12">
+        <v>-3</v>
+      </c>
       <c r="H25" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
       <c r="H26" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
       <c r="H27" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="B29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="F29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="D30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="12">
-        <v>2</v>
-      </c>
-      <c r="G30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="H30" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F31" s="12">
-        <v>370</v>
-      </c>
-      <c r="G31" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="12">
+        <v>2</v>
+      </c>
       <c r="H31" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F32" s="12">
-        <v>50</v>
-      </c>
-      <c r="G32" s="12"/>
+        <v>1000</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1000</v>
+      </c>
       <c r="H32" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F33" s="12">
-        <v>-2</v>
-      </c>
-      <c r="G33" s="12"/>
+        <v>2500</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2500</v>
+      </c>
       <c r="H33" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="G34" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="F34" s="12">
+        <v>2</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2</v>
+      </c>
       <c r="H34" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="F35" s="12">
+        <v>-2</v>
+      </c>
+      <c r="G35" s="12">
+        <v>-2</v>
+      </c>
       <c r="H35" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
       </c>
-      <c r="G36" s="12"/>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
       <c r="H36" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="E37" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="D39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="11" t="s">
+      <c r="G39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="12">
+        <v>10</v>
+      </c>
+      <c r="G41" s="12">
+        <v>10</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1508,5 +1903,861 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F40:G47" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EC26B-4268-4444-9EE4-650B4C898546}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="6" max="8" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="12">
+        <v>6</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="12">
+        <v>-6</v>
+      </c>
+      <c r="G8" s="12">
+        <v>-6</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="12">
+        <v>100101</v>
+      </c>
+      <c r="G15" s="12">
+        <v>100101</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="12">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12">
+        <v>6</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="12">
+        <v>-6</v>
+      </c>
+      <c r="G18" s="12">
+        <v>-6</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="12">
+        <v>-6</v>
+      </c>
+      <c r="G19" s="12">
+        <v>-6</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="G25" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="12">
+        <v>3000</v>
+      </c>
+      <c r="G26" s="12">
+        <v>3000</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>2</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="12">
+        <v>-2</v>
+      </c>
+      <c r="G28" s="12">
+        <v>-2</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="12">
+        <v>33367</v>
+      </c>
+      <c r="G35" s="12">
+        <v>33367</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/classwork_1/module_4_practice_1.xlsx
+++ b/classwork_1/module_4_practice_1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\1\module_testing\classwork_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E2E48-B816-435A-934D-C0AF29F8ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37A4D8C-C1DF-4AE7-BD2E-B5AEC3AB3CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{0861009E-620E-42F4-A7CE-5A21C66E0B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Калькулятор" sheetId="2" r:id="rId1"/>
     <sheet name="Массив" sheetId="3" r:id="rId2"/>
+    <sheet name="Пользователь" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="160">
   <si>
     <t>Идентификатор теста</t>
   </si>
@@ -358,6 +359,165 @@
   </si>
   <si>
     <t>ZeroDivisionError</t>
+  </si>
+  <si>
+    <t>Корректность работы операции инициализации пользователя</t>
+  </si>
+  <si>
+    <t>Корректность работы операции получения возраста</t>
+  </si>
+  <si>
+    <t>Корректность работы операции получения имени</t>
+  </si>
+  <si>
+    <t>Корректность работы операции увеличении возраста</t>
+  </si>
+  <si>
+    <t>Проверка работы с использованием различных типов данных</t>
+  </si>
+  <si>
+    <t>Проверка работы с пустым именем</t>
+  </si>
+  <si>
+    <t>Проверка работы с отрицательным возрастом</t>
+  </si>
+  <si>
+    <t>Проверка работы с пустым возрастом</t>
+  </si>
+  <si>
+    <t>Проверка работы с очень большим возрастом</t>
+  </si>
+  <si>
+    <t>Проверка работы с длинным именем</t>
+  </si>
+  <si>
+    <t>Проверка работы с пустым именем и возрастом</t>
+  </si>
+  <si>
+    <t>Проверка работы с пустым именем и отрицательным возрастом</t>
+  </si>
+  <si>
+    <t>Иван, 20</t>
+  </si>
+  <si>
+    <t>Федор, 30</t>
+  </si>
+  <si>
+    <t>Дмитрий, 33</t>
+  </si>
+  <si>
+    <t>Иван, "20"</t>
+  </si>
+  <si>
+    <t>Иван, -20</t>
+  </si>
+  <si>
+    <t>None, "20"</t>
+  </si>
+  <si>
+    <t>True, 20</t>
+  </si>
+  <si>
+    <t>None, 20</t>
+  </si>
+  <si>
+    <t>Иван, None</t>
+  </si>
+  <si>
+    <t>Иван, 1000</t>
+  </si>
+  <si>
+    <t>Иванфедордмитрийкириллантонолег, 20</t>
+  </si>
+  <si>
+    <t>None, None</t>
+  </si>
+  <si>
+    <t>None, -20</t>
+  </si>
+  <si>
+    <t>Антон, 90</t>
+  </si>
+  <si>
+    <t>Олег, 100</t>
+  </si>
+  <si>
+    <t>Игорь, 110</t>
+  </si>
+  <si>
+    <t>Мария, 48</t>
+  </si>
+  <si>
+    <t>Эдуард, 50</t>
+  </si>
+  <si>
+    <t>John, 33</t>
+  </si>
+  <si>
+    <t>Jack, 10</t>
+  </si>
+  <si>
+    <t>Жанна, 110</t>
+  </si>
+  <si>
+    <t>Peter, 15</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>ValueError</t>
+  </si>
+  <si>
+    <t>Антон, 1</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>90, 91</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать пустое имя</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать отрицательный возраст</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать пустой возраст</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать очень большой возраст</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать длинное имя</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать пусто имя и возраст</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать пусто имя и отрицательный возраст</t>
+  </si>
+  <si>
+    <t>Проверка работы с маленьким возрастом</t>
+  </si>
+  <si>
+    <t>Вызвать функцию и передать маленький возраст</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EC26B-4268-4444-9EE4-650B4C898546}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2760,4 +2920,866 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E1BA0-9CC9-4102-88F5-700EECFB3812}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="6" max="8" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D34:D36" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>